--- a/app-medicine-r/modulos/data/set_de_datos_1.xlsx
+++ b/app-medicine-r/modulos/data/set_de_datos_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rstudio\software_salud_test_1\app_salud\app\logic\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rstudio\app_health_r_medicine\app-medicine-r\modulos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924884B5-B721-4416-A4EF-4C6322F801B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F737396D-3B87-4F46-A6DA-3E3D2C57BE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{A035267E-5D3E-4097-B788-79B64BEF5509}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A035267E-5D3E-4097-B788-79B64BEF5509}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2867,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9808375D-D5D5-4E71-A87A-5B28F2320F53}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3389,7 +3389,7 @@
         <v>1176</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="F16" t="str">
         <f t="array" ref="F16:F17">TRANSPOSE(H1:I1)</f>
@@ -3411,7 +3411,7 @@
         <v>676.6</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="F17" t="str">
         <v>% programado respecto a habilitado</v>
@@ -7403,7 +7403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615EFB19-F474-4215-A4C4-27A7F36F1049}">
   <dimension ref="A1:F286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+    <sheetView topLeftCell="A265" workbookViewId="0">
       <selection activeCell="F285" sqref="F285"/>
     </sheetView>
   </sheetViews>
